--- a/Img/DataSet.xlsx
+++ b/Img/DataSet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="269">
   <si>
     <t>אבוקדו</t>
   </si>
@@ -81,9 +81,6 @@
     <t>בורקס</t>
   </si>
   <si>
-    <t>ביגאלאך</t>
-  </si>
-  <si>
     <t>בייגל</t>
   </si>
   <si>
@@ -129,15 +126,9 @@
     <t>גליליות</t>
   </si>
   <si>
-    <t>גליק / קליק</t>
-  </si>
-  <si>
     <t>גמבה</t>
   </si>
   <si>
-    <t>גרעינים - פיצוחים</t>
-  </si>
-  <si>
     <t>דבש</t>
   </si>
   <si>
@@ -468,9 +459,6 @@
     <t>תפוח אדמה</t>
   </si>
   <si>
-    <t>אוכל</t>
-  </si>
-  <si>
     <t>תרופה בלי טעם</t>
   </si>
   <si>
@@ -513,196 +501,328 @@
     <t>קורנפלקס</t>
   </si>
   <si>
-    <t>Img\avocado.png</t>
-  </si>
-  <si>
-    <t>Img\avatiach.png</t>
-  </si>
-  <si>
-    <t>Img\nuts.png</t>
-  </si>
-  <si>
-    <t>Img\agas.png</t>
-  </si>
-  <si>
-    <t>Img\rice.png</t>
-  </si>
-  <si>
-    <t>Img\pasta.png</t>
-  </si>
-  <si>
-    <t>Img\ananas.png</t>
-  </si>
-  <si>
-    <t>trufa</t>
-  </si>
-  <si>
-    <t>potato</t>
-  </si>
-  <si>
-    <t>apple</t>
-  </si>
-  <si>
-    <t>orange</t>
-  </si>
-  <si>
-    <t>tamar</t>
-  </si>
-  <si>
-    <t>tiras</t>
-  </si>
-  <si>
-    <t>tut</t>
-  </si>
-  <si>
-    <t>tee</t>
-  </si>
-  <si>
-    <t>teena</t>
-  </si>
-  <si>
-    <t>shkedemarak</t>
-  </si>
-  <si>
-    <t>shnitsel</t>
-  </si>
-  <si>
-    <t>shaked</t>
-  </si>
-  <si>
-    <t>shamenet</t>
-  </si>
-  <si>
-    <t>shtrudel</t>
-  </si>
-  <si>
-    <t>shezif</t>
-  </si>
-  <si>
-    <t>shokolad</t>
-  </si>
-  <si>
-    <t>shumar</t>
-  </si>
-  <si>
-    <t>shum</t>
-  </si>
-  <si>
-    <t>rimon</t>
-  </si>
-  <si>
-    <t>riba</t>
-  </si>
-  <si>
-    <t>kashyu</t>
-  </si>
-  <si>
-    <t>kreker</t>
-  </si>
-  <si>
-    <t>krembo</t>
-  </si>
-  <si>
-    <t>artik</t>
-  </si>
-  <si>
-    <t>katsefet</t>
-  </si>
-  <si>
-    <t>cofee</t>
-  </si>
-  <si>
-    <t>kneydalach</t>
-  </si>
-  <si>
-    <t>klementina</t>
-  </si>
-  <si>
-    <t>kishu</t>
-  </si>
-  <si>
-    <t>kinamon</t>
-  </si>
-  <si>
-    <t>kiwi</t>
-  </si>
-  <si>
-    <t>ketshop</t>
-  </si>
-  <si>
-    <t>kornflexe</t>
-  </si>
-  <si>
-    <t>koktelperot</t>
-  </si>
-  <si>
-    <t>kokus</t>
-  </si>
-  <si>
-    <t>kolorabi</t>
-  </si>
-  <si>
-    <t>kubana</t>
-  </si>
-  <si>
-    <t>kube</t>
-  </si>
-  <si>
-    <t>kakaomashke</t>
-  </si>
-  <si>
-    <t>tsnim</t>
-  </si>
-  <si>
-    <t>tsnonit</t>
-  </si>
-  <si>
-    <t>tsnon</t>
-  </si>
-  <si>
-    <t>ships</t>
-  </si>
-  <si>
-    <t>tsimukim</t>
-  </si>
-  <si>
-    <t>ptitim</t>
-  </si>
-  <si>
-    <t>prichiyot</t>
-  </si>
-  <si>
-    <t>pitsputseorez</t>
-  </si>
-  <si>
-    <t>pilpel</t>
-  </si>
-  <si>
-    <t>pita</t>
-  </si>
-  <si>
-    <t>fixtuk</t>
-  </si>
-  <si>
-    <t>popcorn</t>
-  </si>
-  <si>
-    <t>pomela</t>
-  </si>
-  <si>
-    <t>puding</t>
-  </si>
-  <si>
-    <t>papaya</t>
-  </si>
-  <si>
-    <t>falafel</t>
-  </si>
-  <si>
-    <t>armonim</t>
-  </si>
-  <si>
-    <t>anavim</t>
+    <t>ananas.png</t>
+  </si>
+  <si>
+    <t>pasta.png</t>
+  </si>
+  <si>
+    <t>rice.png</t>
+  </si>
+  <si>
+    <t>agas.png</t>
+  </si>
+  <si>
+    <t>nuts.png</t>
+  </si>
+  <si>
+    <t>avocado.png</t>
+  </si>
+  <si>
+    <t>avatiach.png</t>
+  </si>
+  <si>
+    <t>peach.png</t>
+  </si>
+  <si>
+    <t>eshkolit.png</t>
+  </si>
+  <si>
+    <t>peanuts.png</t>
+  </si>
+  <si>
+    <t>burekas.png</t>
+  </si>
+  <si>
+    <t>בייגלך</t>
+  </si>
+  <si>
+    <t>pretzel.png</t>
+  </si>
+  <si>
+    <t>bisli.png</t>
+  </si>
+  <si>
+    <t>biscuit.png</t>
+  </si>
+  <si>
+    <t>egg.png</t>
+  </si>
+  <si>
+    <t>beer.png</t>
+  </si>
+  <si>
+    <t>bamba.png</t>
+  </si>
+  <si>
+    <t>banana.png</t>
+  </si>
+  <si>
+    <t>meat.png</t>
+  </si>
+  <si>
+    <t>chease.png</t>
+  </si>
+  <si>
+    <t>carrot.png</t>
+  </si>
+  <si>
+    <t>icecream.png</t>
+  </si>
+  <si>
+    <t>קליק</t>
+  </si>
+  <si>
+    <t>גרעינים</t>
+  </si>
+  <si>
+    <t>garhinim.jpg</t>
+  </si>
+  <si>
+    <t>gamba.png</t>
+  </si>
+  <si>
+    <t>honey.png</t>
+  </si>
+  <si>
+    <t>fish.png</t>
+  </si>
+  <si>
+    <t>cherry.png</t>
+  </si>
+  <si>
+    <t>pumpkin.png</t>
+  </si>
+  <si>
+    <t>waffles.png</t>
+  </si>
+  <si>
+    <t>milk.png</t>
+  </si>
+  <si>
+    <t>hasa.jpg</t>
+  </si>
+  <si>
+    <t>hatzil.png</t>
+  </si>
+  <si>
+    <t>wine.png</t>
+  </si>
+  <si>
+    <t>bread.png</t>
+  </si>
+  <si>
+    <t>water.png</t>
+  </si>
+  <si>
+    <t>mango.png</t>
+  </si>
+  <si>
+    <t>naknik.jpg</t>
+  </si>
+  <si>
+    <t>sufgania.png</t>
+  </si>
+  <si>
+    <t>tomato.png</t>
+  </si>
+  <si>
+    <t>chicken.png</t>
+  </si>
+  <si>
+    <t>ברק</t>
+  </si>
+  <si>
+    <t>עושה מעשה בראשית</t>
+  </si>
+  <si>
+    <t>רעם</t>
+  </si>
+  <si>
+    <t>שכוחו וגבורתו מלא עולם</t>
+  </si>
+  <si>
+    <t>זוכר הברית</t>
+  </si>
+  <si>
+    <t>קשת</t>
+  </si>
+  <si>
+    <t>חולצה חדשה</t>
+  </si>
+  <si>
+    <t>שהחיינו</t>
+  </si>
+  <si>
+    <t>artik.jpg</t>
+  </si>
+  <si>
+    <t>cofee.jpg</t>
+  </si>
+  <si>
+    <t>falafel.jpg</t>
+  </si>
+  <si>
+    <t>fixtuk.jpg</t>
+  </si>
+  <si>
+    <t>kakaomashke.jpg</t>
+  </si>
+  <si>
+    <t>kinamon.jpg</t>
+  </si>
+  <si>
+    <t>kishu.jpg</t>
+  </si>
+  <si>
+    <t>klementina.jpg</t>
+  </si>
+  <si>
+    <t>kneydalach.jpg</t>
+  </si>
+  <si>
+    <t>kokus.jpg</t>
+  </si>
+  <si>
+    <t>kornflexe.jpg</t>
+  </si>
+  <si>
+    <t>krembo.jpg</t>
+  </si>
+  <si>
+    <t>kube.jpg</t>
+  </si>
+  <si>
+    <t>papaya.jpg</t>
+  </si>
+  <si>
+    <t>pilpel.jpg</t>
+  </si>
+  <si>
+    <t>pita.jpg</t>
+  </si>
+  <si>
+    <t>pitsputseorez.jpg</t>
+  </si>
+  <si>
+    <t>pomela.jpg</t>
+  </si>
+  <si>
+    <t>popcorn.jpg</t>
+  </si>
+  <si>
+    <t>potato.jpg</t>
+  </si>
+  <si>
+    <t>ptitim.jpg</t>
+  </si>
+  <si>
+    <t>rimon.jpg</t>
+  </si>
+  <si>
+    <t>shezif.jpg</t>
+  </si>
+  <si>
+    <t>shtrudel.jpg</t>
+  </si>
+  <si>
+    <t>shum.jpg</t>
+  </si>
+  <si>
+    <t>shumar.jpg</t>
+  </si>
+  <si>
+    <t>tsimukim.jpg</t>
+  </si>
+  <si>
+    <t>tsnon.jpg</t>
+  </si>
+  <si>
+    <t>tsnonit.jpg</t>
+  </si>
+  <si>
+    <t>anavim.png</t>
+  </si>
+  <si>
+    <t>armonim.png</t>
+  </si>
+  <si>
+    <t>puding.png</t>
+  </si>
+  <si>
+    <t>ships.png</t>
+  </si>
+  <si>
+    <t>tsnim.png</t>
+  </si>
+  <si>
+    <t>kubana.png</t>
+  </si>
+  <si>
+    <t>kolorabi.png</t>
+  </si>
+  <si>
+    <t>koktelperot.png</t>
+  </si>
+  <si>
+    <t>ketshop.png</t>
+  </si>
+  <si>
+    <t>kiwi.png</t>
+  </si>
+  <si>
+    <t>kreker.png</t>
+  </si>
+  <si>
+    <t>kashyu.png</t>
+  </si>
+  <si>
+    <t>riba.png</t>
+  </si>
+  <si>
+    <t>shokolad.png</t>
+  </si>
+  <si>
+    <t>shamenet.png</t>
+  </si>
+  <si>
+    <t>shnitsel.png</t>
+  </si>
+  <si>
+    <t>shaked.png</t>
+  </si>
+  <si>
+    <t>shkedemarak.png</t>
+  </si>
+  <si>
+    <t>teena.png</t>
+  </si>
+  <si>
+    <t>tee.png</t>
+  </si>
+  <si>
+    <t>tut.png</t>
+  </si>
+  <si>
+    <t>tiras.png</t>
+  </si>
+  <si>
+    <t>tamar.png</t>
+  </si>
+  <si>
+    <t>orange.png</t>
+  </si>
+  <si>
+    <t>apple.png</t>
+  </si>
+  <si>
+    <t>trufa.png</t>
+  </si>
+  <si>
+    <t>katsefet.png</t>
+  </si>
+  <si>
+    <t>prichiyot.png</t>
   </si>
 </sst>
 </file>
@@ -713,7 +833,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1072,7 +1192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1335,6 +1455,10 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1356,7 +1480,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ערכת נושא Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1642,21 +1766,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E147"/>
+  <dimension ref="A1:E151"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A123" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E148" sqref="E148"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.125" customWidth="1"/>
-    <col min="2" max="2" width="8.875" customWidth="1"/>
-    <col min="3" max="3" width="5.625" customWidth="1"/>
-    <col min="5" max="5" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1666,14 +1790,11 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>150</v>
-      </c>
       <c r="E1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -1683,14 +1804,11 @@
       <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
-        <v>150</v>
-      </c>
       <c r="E2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="57" t="s">
         <v>5</v>
       </c>
@@ -1700,14 +1818,11 @@
       <c r="C3" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
-        <v>150</v>
-      </c>
       <c r="E3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1717,14 +1832,11 @@
       <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
-        <v>150</v>
-      </c>
       <c r="E4" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1734,11 +1846,8 @@
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -1748,14 +1857,11 @@
       <c r="C6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D6" t="s">
-        <v>150</v>
-      </c>
       <c r="E6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1765,14 +1871,11 @@
       <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D7" t="s">
-        <v>150</v>
-      </c>
       <c r="E7" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
@@ -1782,14 +1885,11 @@
       <c r="C8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D8" t="s">
-        <v>150</v>
-      </c>
       <c r="E8" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -1799,11 +1899,8 @@
       <c r="C9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D9" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
@@ -1813,11 +1910,8 @@
       <c r="C10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D10" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -1827,11 +1921,11 @@
       <c r="C11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D11" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
@@ -1841,11 +1935,8 @@
       <c r="C12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D12" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
@@ -1855,13 +1946,13 @@
       <c r="C13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D13" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>18</v>
@@ -1869,11 +1960,8 @@
       <c r="C14" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D14" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>19</v>
       </c>
@@ -1883,11 +1971,11 @@
       <c r="C15" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D15" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>20</v>
       </c>
@@ -1897,13 +1985,13 @@
       <c r="C16" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D16" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>21</v>
+        <v>172</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>9</v>
@@ -1911,13 +1999,13 @@
       <c r="C17" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D17" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>9</v>
@@ -1925,13 +2013,13 @@
       <c r="C18" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D18" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>9</v>
@@ -1939,13 +2027,13 @@
       <c r="C19" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D19" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>9</v>
@@ -1953,55 +2041,55 @@
       <c r="C20" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D20" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
+      <c r="B22" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+      <c r="B23" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="9" t="s">
         <v>27</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>28</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>4</v>
@@ -2009,13 +2097,13 @@
       <c r="C24" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D24" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>9</v>
@@ -2023,41 +2111,38 @@
       <c r="C25" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D25" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
+      <c r="B27" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="13" t="s">
         <v>31</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D27" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
-        <v>32</v>
       </c>
       <c r="B28" s="14" t="s">
         <v>1</v>
@@ -2065,13 +2150,10 @@
       <c r="C28" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D28" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B29" s="16" t="s">
         <v>4</v>
@@ -2079,13 +2161,13 @@
       <c r="C29" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D29" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B30" s="14" t="s">
         <v>9</v>
@@ -2093,27 +2175,24 @@
       <c r="C30" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D30" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="13" t="s">
         <v>35</v>
-      </c>
-      <c r="B31" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
-        <v>36</v>
       </c>
       <c r="B32" s="14" t="s">
         <v>9</v>
@@ -2121,13 +2200,10 @@
       <c r="C32" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D32" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="15" t="s">
-        <v>37</v>
+        <v>184</v>
       </c>
       <c r="B33" s="16" t="s">
         <v>18</v>
@@ -2135,13 +2211,10 @@
       <c r="C33" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D33" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B34" s="14" t="s">
         <v>4</v>
@@ -2149,13 +2222,13 @@
       <c r="C34" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D34" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="15" t="s">
-        <v>39</v>
+        <v>185</v>
       </c>
       <c r="B35" s="16" t="s">
         <v>4</v>
@@ -2163,13 +2236,13 @@
       <c r="C35" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D35" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E35" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B36" s="18" t="s">
         <v>18</v>
@@ -2177,13 +2250,13 @@
       <c r="C36" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D36" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E36" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="19" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B37" s="20" t="s">
         <v>18</v>
@@ -2191,13 +2264,13 @@
       <c r="C37" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D37" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E37" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="21" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B38" s="22" t="s">
         <v>1</v>
@@ -2205,13 +2278,13 @@
       <c r="C38" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D38" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E38" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B39" s="20" t="s">
         <v>4</v>
@@ -2219,13 +2292,13 @@
       <c r="C39" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D39" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E39" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="23" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B40" s="24" t="s">
         <v>9</v>
@@ -2233,27 +2306,24 @@
       <c r="C40" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D40" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E40" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="25" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B41" s="26" t="s">
         <v>1</v>
       </c>
       <c r="C41" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="D41" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="27" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B42" s="28" t="s">
         <v>1</v>
@@ -2261,81 +2331,66 @@
       <c r="C42" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D42" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E43" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D43" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+    </row>
+    <row r="45" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B45" s="90" t="s">
         <v>50</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C45" s="91"/>
+    </row>
+    <row r="46" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D44" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
+      <c r="B46" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B45" s="88" t="s">
+      <c r="B47" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="C45" s="89"/>
-      <c r="D45" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D46" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D47" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>4</v>
@@ -2343,13 +2398,13 @@
       <c r="C48" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D48" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E48" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>4</v>
@@ -2357,13 +2412,13 @@
       <c r="C49" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D49" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E49" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>1</v>
@@ -2371,83 +2426,68 @@
       <c r="C50" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D50" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B51" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D51" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="7" t="s">
+      <c r="B54" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B52" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D52" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="11" t="s">
+      <c r="C54" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B53" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C53" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D53" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="13" t="s">
+      <c r="E54" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="B54" s="14" t="s">
+      <c r="B55" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C55" s="24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="29" t="s">
         <v>63</v>
-      </c>
-      <c r="C54" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D54" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="B55" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="C55" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D55" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="29" t="s">
-        <v>66</v>
       </c>
       <c r="B56" s="30" t="s">
         <v>4</v>
@@ -2455,13 +2495,10 @@
       <c r="C56" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D56" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="31" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B57" s="32" t="s">
         <v>4</v>
@@ -2469,97 +2506,82 @@
       <c r="C57" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D57" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="B58" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C58" s="34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="B59" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="C59" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="E59" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B60" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C60" s="34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="B58" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C58" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="D58" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="35" t="s">
+      <c r="B61" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="C61" s="81" t="s">
+        <v>2</v>
+      </c>
+      <c r="E61" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B59" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="C59" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="D59" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="33" t="s">
+      <c r="B62" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B60" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C60" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="D60" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A61" s="37" t="s">
+      <c r="B63" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B61" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="C61" s="81" t="s">
-        <v>2</v>
-      </c>
-      <c r="D61" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="7" t="s">
+      <c r="C63" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D62" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B63" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D63" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="B64" s="8" t="s">
         <v>1</v>
@@ -2567,13 +2589,10 @@
       <c r="C64" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D64" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B65" s="10" t="s">
         <v>9</v>
@@ -2581,13 +2600,10 @@
       <c r="C65" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D65" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B66" s="8" t="s">
         <v>1</v>
@@ -2595,13 +2611,13 @@
       <c r="C66" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D66" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E66" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B67" s="10" t="s">
         <v>1</v>
@@ -2609,25 +2625,19 @@
       <c r="C67" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D67" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B68" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C68" s="39"/>
-      <c r="D68" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="82" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B69" s="84" t="s">
         <v>4</v>
@@ -2635,13 +2645,10 @@
       <c r="C69" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="D69" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="83" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B70" s="86" t="s">
         <v>1</v>
@@ -2649,55 +2656,46 @@
       <c r="C70" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="D70" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B73" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C73" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E73" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="17" t="s">
         <v>80</v>
-      </c>
-      <c r="B71" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D71" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D72" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="B73" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C73" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D73" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="17" t="s">
-        <v>83</v>
       </c>
       <c r="B74" s="18" t="s">
         <v>1</v>
@@ -2705,25 +2703,19 @@
       <c r="C74" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D74" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="19" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B75" s="20" t="s">
         <v>18</v>
       </c>
       <c r="C75" s="40"/>
-      <c r="D75" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="21" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B76" s="22" t="s">
         <v>9</v>
@@ -2731,13 +2723,13 @@
       <c r="C76" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D76" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E76" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="19" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B77" s="20" t="s">
         <v>4</v>
@@ -2745,13 +2737,10 @@
       <c r="C77" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D77" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="21" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B78" s="22" t="s">
         <v>4</v>
@@ -2759,58 +2748,52 @@
       <c r="C78" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D78" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="B79" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="C79" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="E79" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E80" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="B79" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="C79" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D79" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D80" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D81" t="s">
-        <v>150</v>
-      </c>
-      <c r="E81" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="E81" s="89" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>1</v>
@@ -2818,16 +2801,13 @@
       <c r="C82" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D82" t="s">
-        <v>150</v>
-      </c>
-      <c r="E82" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E82" s="89" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>18</v>
@@ -2835,16 +2815,13 @@
       <c r="C83" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D83" t="s">
-        <v>150</v>
-      </c>
-      <c r="E83" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E83" s="89" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>4</v>
@@ -2852,16 +2829,13 @@
       <c r="C84" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D84" t="s">
-        <v>150</v>
-      </c>
-      <c r="E84" t="s">
+      <c r="E84" s="89" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>18</v>
@@ -2869,16 +2843,13 @@
       <c r="C85" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D85" t="s">
-        <v>150</v>
-      </c>
-      <c r="E85" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E85" s="89" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>1</v>
@@ -2886,16 +2857,13 @@
       <c r="C86" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D86" t="s">
-        <v>150</v>
-      </c>
-      <c r="E86" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E86" s="89" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>4</v>
@@ -2903,16 +2871,13 @@
       <c r="C87" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D87" t="s">
-        <v>150</v>
-      </c>
-      <c r="E87" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E87" s="89" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>1</v>
@@ -2920,47 +2885,39 @@
       <c r="C88" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D88" t="s">
-        <v>150</v>
-      </c>
-      <c r="E88" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E88" s="89" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D89" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="E89" s="89"/>
+    </row>
+    <row r="90" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D90" t="s">
-        <v>150</v>
-      </c>
-      <c r="E90" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="E90" s="89" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>4</v>
@@ -2968,16 +2925,13 @@
       <c r="C91" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D91" t="s">
-        <v>150</v>
-      </c>
-      <c r="E91" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E91" s="89" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>9</v>
@@ -2985,16 +2939,13 @@
       <c r="C92" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D92" t="s">
-        <v>150</v>
-      </c>
-      <c r="E92" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E92" s="89" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>4</v>
@@ -3002,16 +2953,13 @@
       <c r="C93" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D93" t="s">
-        <v>150</v>
-      </c>
-      <c r="E93" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E93" s="89" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>9</v>
@@ -3019,33 +2967,27 @@
       <c r="C94" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D94" t="s">
-        <v>150</v>
-      </c>
-      <c r="E94" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E94" s="89" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B95" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D95" t="s">
-        <v>150</v>
-      </c>
-      <c r="E95" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="E95" s="89" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B96" s="8" t="s">
         <v>4</v>
@@ -3053,16 +2995,13 @@
       <c r="C96" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D96" t="s">
-        <v>150</v>
-      </c>
-      <c r="E96" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E96" s="89" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B97" s="10" t="s">
         <v>4</v>
@@ -3070,16 +3009,13 @@
       <c r="C97" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D97" t="s">
-        <v>150</v>
-      </c>
-      <c r="E97" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E97" s="89" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B98" s="8" t="s">
         <v>4</v>
@@ -3087,33 +3023,27 @@
       <c r="C98" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D98" t="s">
-        <v>150</v>
-      </c>
-      <c r="E98" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E98" s="89" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D99" t="s">
-        <v>150</v>
-      </c>
-      <c r="E99" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="E99" s="89" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B100" s="12" t="s">
         <v>18</v>
@@ -3121,16 +3051,13 @@
       <c r="C100" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D100" t="s">
-        <v>150</v>
-      </c>
-      <c r="E100" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E100" s="89" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="13" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B101" s="14" t="s">
         <v>9</v>
@@ -3138,33 +3065,27 @@
       <c r="C101" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D101" t="s">
-        <v>150</v>
-      </c>
-      <c r="E101" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E101" s="89" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="15" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B102" s="16" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C102" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D102" t="s">
-        <v>150</v>
-      </c>
-      <c r="E102" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E102" s="89" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="13" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B103" s="14" t="s">
         <v>9</v>
@@ -3172,13 +3093,11 @@
       <c r="C103" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D103" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="E103" s="89"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="66" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B104" s="63" t="s">
         <v>4</v>
@@ -3186,13 +3105,11 @@
       <c r="C104" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="D104" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="E104" s="89"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="79" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B105" s="41" t="s">
         <v>18</v>
@@ -3200,13 +3117,11 @@
       <c r="C105" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="D105" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E105" s="89"/>
+    </row>
+    <row r="106" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="13" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B106" s="14" t="s">
         <v>4</v>
@@ -3214,16 +3129,13 @@
       <c r="C106" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D106" t="s">
-        <v>150</v>
-      </c>
-      <c r="E106" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E106" s="89" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="15" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B107" s="16" t="s">
         <v>1</v>
@@ -3231,16 +3143,13 @@
       <c r="C107" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D107" t="s">
-        <v>150</v>
-      </c>
-      <c r="E107" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="E107" s="89" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="70" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B108" s="77" t="s">
         <v>1</v>
@@ -3248,16 +3157,13 @@
       <c r="C108" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="D108" t="s">
-        <v>150</v>
-      </c>
-      <c r="E108" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E108" s="89" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="46" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B109" s="16" t="s">
         <v>18</v>
@@ -3265,16 +3171,13 @@
       <c r="C109" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D109" t="s">
-        <v>150</v>
-      </c>
-      <c r="E109" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E109" s="89" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="13" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B110" s="14" t="s">
         <v>18</v>
@@ -3282,16 +3185,13 @@
       <c r="C110" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D110" t="s">
-        <v>150</v>
-      </c>
-      <c r="E110" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E110" s="89" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="15" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B111" s="16" t="s">
         <v>1</v>
@@ -3299,31 +3199,25 @@
       <c r="C111" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D111" t="s">
-        <v>150</v>
-      </c>
-      <c r="E111" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="E111" s="89" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="70" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B112" s="74" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C112" s="75"/>
-      <c r="D112" t="s">
-        <v>150</v>
-      </c>
-      <c r="E112" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="E112" s="89" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="72" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B113" s="44" t="s">
         <v>18</v>
@@ -3331,10 +3225,11 @@
       <c r="C113" s="73" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E113" s="89"/>
+    </row>
+    <row r="114" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="71" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B114" s="45" t="s">
         <v>18</v>
@@ -3342,13 +3237,11 @@
       <c r="C114" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="D114" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E114" s="89"/>
+    </row>
+    <row r="115" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="15" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B115" s="16" t="s">
         <v>4</v>
@@ -3356,40 +3249,33 @@
       <c r="C115" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D115" t="s">
-        <v>150</v>
-      </c>
-      <c r="E115" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="E115" s="89" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="43" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B116" s="68" t="s">
         <v>18</v>
       </c>
       <c r="C116" s="69"/>
-      <c r="D116" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E116" s="89"/>
+    </row>
+    <row r="117" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="15" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B117" s="16" t="s">
         <v>1</v>
       </c>
       <c r="C117" s="47"/>
-      <c r="D117" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E117" s="89"/>
+    </row>
+    <row r="118" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="13" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B118" s="14" t="s">
         <v>1</v>
@@ -3397,16 +3283,13 @@
       <c r="C118" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D118" t="s">
-        <v>150</v>
-      </c>
-      <c r="E118" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E118" s="89" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="15" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B119" s="16" t="s">
         <v>9</v>
@@ -3414,92 +3297,75 @@
       <c r="C119" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D119" t="s">
+      <c r="E119" s="89" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B120" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C120" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E120" s="89" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="B121" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C121" s="47"/>
+      <c r="E121" s="89" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="B122" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C122" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="E122" s="89" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="66" t="s">
         <v>150</v>
-      </c>
-      <c r="E119" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="B120" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C120" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D120" t="s">
-        <v>150</v>
-      </c>
-      <c r="E120" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="B121" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C121" s="47"/>
-      <c r="D121" t="s">
-        <v>150</v>
-      </c>
-      <c r="E121" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="B122" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C122" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="D122" t="s">
-        <v>150</v>
-      </c>
-      <c r="E122" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A123" s="66" t="s">
-        <v>154</v>
       </c>
       <c r="B123" s="63" t="s">
         <v>9</v>
       </c>
       <c r="C123" s="64"/>
-      <c r="D123" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E123" s="89"/>
+    </row>
+    <row r="124" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="67" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B124" s="42" t="s">
         <v>18</v>
       </c>
       <c r="C124" s="65"/>
-      <c r="D124" t="s">
-        <v>150</v>
-      </c>
-      <c r="E124" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E124" s="89" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="13" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B125" s="14" t="s">
         <v>9</v>
@@ -3507,16 +3373,13 @@
       <c r="C125" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D125" t="s">
-        <v>150</v>
-      </c>
-      <c r="E125" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E125" s="89" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="15" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B126" s="16" t="s">
         <v>1</v>
@@ -3524,97 +3387,79 @@
       <c r="C126" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D126" t="s">
-        <v>150</v>
-      </c>
-      <c r="E126" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E126" s="89" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="17" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B127" s="18" t="s">
         <v>18</v>
       </c>
       <c r="C127" s="48"/>
-      <c r="D127" t="s">
-        <v>150</v>
-      </c>
-      <c r="E127" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E127" s="89" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="19" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B128" s="20" t="s">
         <v>1</v>
       </c>
       <c r="C128" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="D128" t="s">
-        <v>150</v>
-      </c>
-      <c r="E128" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="E128" s="89" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="B129" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C129" s="49"/>
+      <c r="E129" s="89" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="50" t="s">
+        <v>130</v>
+      </c>
+      <c r="B130" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="C130" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="E130" s="89" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="B131" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="C131" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="E131" s="89" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="50" t="s">
         <v>132</v>
-      </c>
-      <c r="B129" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="C129" s="49"/>
-      <c r="D129" t="s">
-        <v>150</v>
-      </c>
-      <c r="E129" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="50" t="s">
-        <v>133</v>
-      </c>
-      <c r="B130" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="C130" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="D130" t="s">
-        <v>150</v>
-      </c>
-      <c r="E130" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="52" t="s">
-        <v>134</v>
-      </c>
-      <c r="B131" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="C131" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="D131" t="s">
-        <v>150</v>
-      </c>
-      <c r="E131" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="50" t="s">
-        <v>135</v>
       </c>
       <c r="B132" s="51" t="s">
         <v>1</v>
@@ -3622,16 +3467,13 @@
       <c r="C132" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D132" t="s">
-        <v>150</v>
-      </c>
-      <c r="E132" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E132" s="89" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="52" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B133" s="53" t="s">
         <v>9</v>
@@ -3639,16 +3481,13 @@
       <c r="C133" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="D133" t="s">
-        <v>150</v>
-      </c>
-      <c r="E133" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E133" s="89" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="50" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B134" s="51" t="s">
         <v>18</v>
@@ -3656,16 +3495,13 @@
       <c r="C134" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D134" t="s">
-        <v>150</v>
-      </c>
-      <c r="E134" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E134" s="89" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="52" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B135" s="53" t="s">
         <v>18</v>
@@ -3673,16 +3509,13 @@
       <c r="C135" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="D135" t="s">
-        <v>150</v>
-      </c>
-      <c r="E135" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E135" s="89" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="50" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B136" s="51" t="s">
         <v>1</v>
@@ -3690,50 +3523,41 @@
       <c r="C136" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D136" t="s">
-        <v>150</v>
-      </c>
-      <c r="E136" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E136" s="89" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="52" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B137" s="53" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C137" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="D137" t="s">
-        <v>150</v>
-      </c>
-      <c r="E137" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E137" s="89" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="31" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B138" s="32" t="s">
         <v>1</v>
       </c>
       <c r="C138" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="D138" t="s">
-        <v>150</v>
-      </c>
-      <c r="E138" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="E138" s="89" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="33" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B139" s="34" t="s">
         <v>18</v>
@@ -3741,16 +3565,13 @@
       <c r="C139" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D139" t="s">
-        <v>150</v>
-      </c>
-      <c r="E139" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E139" s="89" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="35" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B140" s="36" t="s">
         <v>4</v>
@@ -3758,16 +3579,13 @@
       <c r="C140" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D140" t="s">
-        <v>150</v>
-      </c>
-      <c r="E140" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E140" s="89" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="33" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B141" s="34" t="s">
         <v>4</v>
@@ -3775,33 +3593,27 @@
       <c r="C141" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D141" t="s">
-        <v>150</v>
-      </c>
-      <c r="E141" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E141" s="89" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="35" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B142" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C142" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="D142" t="s">
-        <v>150</v>
-      </c>
-      <c r="E142" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="E142" s="89" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="33" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B143" s="34" t="s">
         <v>1</v>
@@ -3809,16 +3621,13 @@
       <c r="C143" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D143" t="s">
-        <v>150</v>
-      </c>
-      <c r="E143" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E143" s="89" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="35" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B144" s="36" t="s">
         <v>1</v>
@@ -3826,16 +3635,13 @@
       <c r="C144" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D144" t="s">
-        <v>150</v>
-      </c>
-      <c r="E144" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E144" s="89" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="33" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B145" s="34" t="s">
         <v>4</v>
@@ -3843,38 +3649,61 @@
       <c r="C145" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D145" t="s">
-        <v>150</v>
-      </c>
-      <c r="E145" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="E145" s="89" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="58" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B146" s="60" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C146" s="61"/>
-      <c r="D146" t="s">
-        <v>150</v>
-      </c>
-      <c r="E146" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E146" s="89" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="59" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B147" s="54" t="s">
         <v>18</v>
       </c>
       <c r="C147" s="62"/>
-      <c r="D147" t="s">
-        <v>150</v>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="88" t="s">
+        <v>204</v>
+      </c>
+      <c r="D148" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="88" t="s">
+        <v>206</v>
+      </c>
+      <c r="D149" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="88" t="s">
+        <v>209</v>
+      </c>
+      <c r="D150" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="88" t="s">
+        <v>210</v>
+      </c>
+      <c r="D151" t="s">
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -3892,7 +3721,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3904,7 +3733,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
